--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560358/JX560358_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560358/JX560358_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89337150424</v>
+        <v>45441.83362347293</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1863_1864insg']</t>
+          <t>['1720_1826del', '1891_1993instagaccttcagccgccgttctccggtcggacgcgttaccttacatcgatcacaaatctcactttaacagtgggtgagagggtagaagcagtttgtcgtctcg', '1732_1789inscaccatggtgcttagatccgcgtacgggcgaaatcaaattccgctgtcaatcgagac', '1822_1892del', '1894_1983inscgtcccgctccacattctatctccgtttgccctgtggggtaaatgaaactatgttaggtgagcagagcagtagtcgaaggagcttccag']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89337152738</v>
+        <v>45441.83362350189</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['686t&gt;a']</t>
+          <t>['687_790inscgctcatcagacgcagcccgccgtattgcttacatagctgaacgacaacaataccggaacgattgctttgacacagcctgggacgcgagcatagaagcattcg', '607_728insgccaataacaacctatgagcccttactcccgagtgagtcggatcatggtcttcgagctcggacgcagattatgggcaactgggacccagacagagcgcgcaacacatggtcttcaagagag', '692_705del', '655_665del', '699_804inscctaactacacctcggctgtcgcgacgtctgtgatggtccaaaaagttgattttggaaattaatggtgtaaaaaaaagtgcagccggccacgaaaccagcctcta']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89337155054</v>
+        <v>45441.83362352473</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3961_3965del']</t>
+          <t>['3918_3978del', '4001_4116del', '3956_4105inscgcggtgtcggccgcagctcttgactacagcgaggagacgtgctcacgggtgtcggttctgggaaatcggatgaccattaccattattgccgtctcctgaccaaaggaatcacagttccgcgacgcttggtgcctttcacacagctaac', '3980_4075insttactccatgggctgataccgtgcatctacatgccaacctcgggtgccaagctggcgtgagtcgcctgaaccacgtggaagcttcgaggcgatag', '3928_3971inscctcagaatctgaattacatgacagaaatcgtaacttactaga']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89337157368</v>
+        <v>45441.8336235553</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1733c&gt;a']</t>
+          <t>['1709_1857del', '1920_1957insattcttgagtacgggtccgggcacacctaggaatcaa', '1720_1764del', '1835_1961insctcgcgggatttaagtctgtcaatcaaggatatgatgcaggtcatggccctcagcgatcatcaatctcacaacggaattataagtgggggcctggacatgaccggataattacgatgggaaaacaa', '1764_1790insacttcctcgttatgggctacaacaag']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['696_701insggggc']</t>
+          <t>['604_686del', '658_670insccctaagatgac', '619_705del', '639_736insgacaagttcttctggaggacaactccgaatggttaccatgatgtcttattaaaatcggcactttccaaggcgctcatatgttaggactttcttgttt', '630_746del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89337159684</v>
+        <v>45441.83362357268</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1809_1813del']</t>
+          <t>['1888_2030del', '1893_1983insaaggataactcccctaacctggagtcgatcaaagtaatgacacacatataatagaatcacgagactactattggctgaagtctatgtaga', '1784_1909del', '1713_1781del', '1740_1843insatcgtatacctggtttttcataagagggcgaatacctcatcgctacaggagtgccttctcaacacttgcaaaagacaggcgcttatagcacgcactttagggt']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3934c&gt;a']</t>
+          <t>['3982_4121inscaaatataaccaaccttacgcgttaaatcgtgactgacaacgtcaacaaggcgcttgccgggaatttaagtaacttgatcagacgcgtagggtgttaggcctagctgacgatgggaccgaagtgcggttctctttcaaa', '4018_4061del', '3999_4121del', '3936_4063instttcaaataatggcactgcgtcattacatcggctgcaccccagactgacctaaccaagatgtctaatgttcatctagcccacgtgttgaaacgcgtatcgcgggggaaagtgctgccatccgcccgt', '3985_4094del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89337161997</v>
+        <v>45441.83362359582</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['611_614del']</t>
+          <t>['676_812del', '665_755instgaatagcaaatccgaatgatacccatccaggtattgcggctgggcacaaatctcgaggttcgtgtcgcgggctttctctccgcttagga', '660_770del', '659_700instacgtagttttgtgagcgtcgcggcttttgatacatggcag', '671_714insagattctccggaaccagactacgcccaatagtggaagtatatc']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3928t&gt;a']</t>
+          <t>['3960_4079del', '3935_4083insgcccacaggttagatagataacagccggcgtcaaatgatgggtgggcggctggtttggtgacttttataagtgtgaaccgaataactgcttagggagaatcaatagacgctccaatctattgctcaagaaacgacgtgcgttgacgac', '4001_4037insttctcagcggcggtaagcccttgccgcagcatgact', '4000_4047insttgggaccccgagtgttgctcggatgactatgcccgtgcgctagttg', '3987_3998del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89337164311</v>
+        <v>45441.83362361896</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1856_1860del']</t>
+          <t>['1755_1881del', '1763_1884instacaggcacctagggaatcacgacagcctgctgacatcggggattggttacatctgggacagacgggacttaggttggtctgaattgtataagatgaggttgttaggtaaccaacattcgg', '1681_1726del', '1807_1848del', '1749_1889del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['651_652del']</t>
+          <t>['646_791insagtgggatgattcgtcaaattcgcgaagagcctctcattcccccttctgaactgagtaaacccagaatgtcgaactagccaggatgttgctcagcgtgcttgaatgcttcgtgtctcgaggaaacagtaacgatagcgtaattag', '627_661del', '613_639del', '693_718insgtggatacagcttttatgcgacagt', '621_767instgttcagaggctactggttaacaggtcgacttatttctaaattgccatgtcatgcggcgtagacgcaagataccatggattaccccgtggttagccgctcgtcggacacgaggcagtgaggtatactcgagtccttaaagatccgc']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3921g&gt;a']</t>
+          <t>['3985_4070del', '3991_4015del', '3991_4095insgcaaccactatgtgaacctacgggagattccggggaatgagaactcatggagtccgtataaaaatgcgtaacccaccagtacctgcacagtcacggacttcgcg', '3960_4101del', '3946_4008insgccacgtatgggtaattcacaaaaggtcgctggtggatgaaaaaactagaatacgatggtga']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89337166627</v>
+        <v>45441.83362364789</v>
       </c>
     </row>
   </sheetData>
